--- a/analysis/analysis II/results/D2.xlsx
+++ b/analysis/analysis II/results/D2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/Documents/GitHub/flood-experience/analysis/analysis II/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/Documents/GitHub/backup/intermediate results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC17D47D-B37B-874B-A0E1-7C623F85A269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DF11F4-8001-CB48-91F0-C7C0B911F2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29400" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
+    <t>function</t>
+  </si>
+  <si>
     <t>beta</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>Cont. Int. Hi.</t>
   </si>
   <si>
+    <t>made_safer ~ awareness + age + homeownership</t>
+  </si>
+  <si>
     <t>Intercept</t>
   </si>
   <si>
@@ -70,44 +76,38 @@
     <t>homeownership</t>
   </si>
   <si>
-    <t>made_safer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">documents </t>
-  </si>
-  <si>
-    <t xml:space="preserve">learned_routes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">supplies </t>
-  </si>
-  <si>
-    <t xml:space="preserve">involved </t>
-  </si>
-  <si>
-    <t xml:space="preserve">made_plan </t>
-  </si>
-  <si>
-    <t>practiced_drills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alerts </t>
-  </si>
-  <si>
-    <t xml:space="preserve">family_communication </t>
-  </si>
-  <si>
-    <t xml:space="preserve">insured </t>
-  </si>
-  <si>
-    <t>outcome</t>
+    <t>documents ~ awareness + age + homeownership</t>
+  </si>
+  <si>
+    <t>learned_routes ~ awareness + age + homeownership</t>
+  </si>
+  <si>
+    <t>supplies ~ awareness + age + homeownership</t>
+  </si>
+  <si>
+    <t>involved ~ awareness + age + homeownership</t>
+  </si>
+  <si>
+    <t>made_plan ~ awareness + age + homeownership</t>
+  </si>
+  <si>
+    <t>practiced_drills ~ awareness + age + homeownership</t>
+  </si>
+  <si>
+    <t>alerts ~ awareness + age + homeownership</t>
+  </si>
+  <si>
+    <t>family_communication ~ awareness + age + homeownership</t>
+  </si>
+  <si>
+    <t>insured ~ awareness + age + homeownership</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,11 +117,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -162,17 +157,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,145 +471,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H41"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4">
+        <v>-1.214</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G2">
+        <v>284.315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="E3">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G3">
+        <v>284.315</v>
+      </c>
+      <c r="H3">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.05</v>
+      </c>
+      <c r="J3">
+        <v>3.351</v>
+      </c>
+      <c r="K3">
+        <v>1E-3</v>
+      </c>
+      <c r="L3">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="M3">
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>-1.2210000000000001</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="F2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G2">
-        <v>289.78399999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>0.623</v>
-      </c>
-      <c r="D3">
-        <v>1E-3</v>
-      </c>
-      <c r="E3">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="F3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G3">
-        <v>289.78399999999999</v>
-      </c>
-      <c r="H3">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="I3">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="J3">
-        <v>3.5870000000000002</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>7.8E-2</v>
-      </c>
-      <c r="M3">
-        <v>0.26700000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>-1E-3</v>
       </c>
-      <c r="D4">
-        <v>0.76100000000000001</v>
+      <c r="D4" s="4">
+        <v>0.86099999999999999</v>
       </c>
       <c r="E4">
-        <v>9.7000000000000003E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="F4">
-        <v>4.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G4">
-        <v>289.78399999999999</v>
+        <v>284.315</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -622,10 +609,10 @@
         <v>1E-3</v>
       </c>
       <c r="J4">
-        <v>-0.30399999999999999</v>
+        <v>-0.17499999999999999</v>
       </c>
       <c r="K4">
-        <v>0.76100000000000001</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="L4">
         <v>-3.0000000000000001E-3</v>
@@ -635,95 +622,95 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.216</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.245</v>
+      </c>
+      <c r="E5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G5">
+        <v>284.315</v>
+      </c>
+      <c r="H5">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="I5">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.17</v>
+      </c>
+      <c r="K5">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="L5">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+      <c r="M5">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-1.393</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F6">
+        <v>1E-3</v>
+      </c>
+      <c r="G6">
+        <v>274.90899999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="D5">
-        <v>0.22</v>
-      </c>
-      <c r="E5">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="F5">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G5">
-        <v>289.78399999999999</v>
-      </c>
-      <c r="H5">
-        <v>6.3E-2</v>
-      </c>
-      <c r="I5">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="J5">
-        <v>1.234</v>
-      </c>
-      <c r="K5">
-        <v>0.217</v>
-      </c>
-      <c r="L5">
-        <v>-3.6999999999999998E-2</v>
-      </c>
-      <c r="M5">
-        <v>0.16200000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>-1.391</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.121</v>
-      </c>
-      <c r="F6">
-        <v>1E-3</v>
-      </c>
-      <c r="G6">
-        <v>278.63900000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="4">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="D7" s="4">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.121</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="F7">
         <v>1E-3</v>
       </c>
       <c r="G7">
-        <v>278.63900000000001</v>
+        <v>274.90899999999999</v>
       </c>
       <c r="H7">
-        <v>0.19800000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I7">
-        <v>4.7E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="J7">
-        <v>4.2069999999999999</v>
+        <v>4.133</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -732,28 +719,28 @@
         <v>0.105</v>
       </c>
       <c r="M7">
-        <v>0.28999999999999998</v>
+        <v>0.29499999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>1E-3</v>
-      </c>
-      <c r="D8">
-        <v>0.76200000000000001</v>
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.69499999999999995</v>
       </c>
       <c r="E8">
-        <v>0.121</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="F8">
         <v>1E-3</v>
       </c>
       <c r="G8">
-        <v>278.63900000000001</v>
+        <v>274.90899999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -762,10 +749,10 @@
         <v>1E-3</v>
       </c>
       <c r="J8">
-        <v>0.30299999999999999</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="K8">
-        <v>0.76200000000000001</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="L8">
         <v>-2E-3</v>
@@ -775,125 +762,125 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="D9">
-        <v>0.69399999999999995</v>
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.65400000000000003</v>
       </c>
       <c r="E9">
-        <v>0.121</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="F9">
         <v>1E-3</v>
       </c>
       <c r="G9">
-        <v>278.63900000000001</v>
+        <v>274.90899999999999</v>
       </c>
       <c r="H9">
-        <v>1.9E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="I9">
-        <v>4.9000000000000002E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="J9">
-        <v>0.39400000000000002</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="K9">
-        <v>0.69399999999999995</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="L9">
         <v>-7.6999999999999999E-2</v>
       </c>
       <c r="M9">
-        <v>0.11600000000000001</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>-1.26</v>
-      </c>
-      <c r="D10">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-1.2669999999999999</v>
+      </c>
+      <c r="D10" s="4">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.189</v>
+        <v>0.187</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>301.13</v>
+        <v>296.44299999999998</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="D11">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="D11" s="4">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.189</v>
+        <v>0.187</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>301.13</v>
+        <v>296.44299999999998</v>
       </c>
       <c r="H11">
-        <v>0.28100000000000003</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="I11">
-        <v>4.5999999999999999E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="J11">
-        <v>6.1109999999999998</v>
+        <v>6.0410000000000004</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.191</v>
+        <v>0.192</v>
       </c>
       <c r="M11">
-        <v>0.371</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0.98199999999999998</v>
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.92200000000000004</v>
       </c>
       <c r="E12">
-        <v>0.189</v>
+        <v>0.187</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>301.13</v>
+        <v>296.44299999999998</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -902,138 +889,138 @@
         <v>1E-3</v>
       </c>
       <c r="J12">
-        <v>-2.1999999999999999E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="K12">
-        <v>0.98199999999999998</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="L12">
         <v>-2E-3</v>
       </c>
       <c r="M12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="E13">
+        <v>0.187</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>296.44299999999998</v>
+      </c>
+      <c r="H13">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I13">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="K13">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="L13">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+      <c r="M13">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4">
+        <v>-0.88800000000000001</v>
+      </c>
+      <c r="D14" s="4">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+      <c r="E14">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>274.27600000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="D13">
-        <v>0.749</v>
-      </c>
-      <c r="E13">
-        <v>0.189</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>301.13</v>
-      </c>
-      <c r="H13">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="I13">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="J13">
-        <v>0.32</v>
-      </c>
-      <c r="K13">
-        <v>0.749</v>
-      </c>
-      <c r="L13">
-        <v>-8.5000000000000006E-2</v>
-      </c>
-      <c r="M13">
-        <v>0.11799999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>-0.89900000000000002</v>
-      </c>
-      <c r="D14">
-        <v>2E-3</v>
-      </c>
-      <c r="E14">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>278.202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="4">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="D15" s="4">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.24399999999999999</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>278.202</v>
+        <v>274.27600000000001</v>
       </c>
       <c r="H15">
-        <v>0.254</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="I15">
-        <v>4.4999999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="J15">
-        <v>5.5960000000000001</v>
+        <v>5.4779999999999998</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.16500000000000001</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="M15">
-        <v>0.34300000000000003</v>
+        <v>0.34699999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4">
         <v>-1.2E-2</v>
       </c>
-      <c r="D16">
-        <v>7.0000000000000001E-3</v>
+      <c r="D16" s="4">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E16">
-        <v>0.24399999999999999</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>278.202</v>
+        <v>274.27600000000001</v>
       </c>
       <c r="H16">
         <v>-3.0000000000000001E-3</v>
@@ -1042,10 +1029,10 @@
         <v>1E-3</v>
       </c>
       <c r="J16">
-        <v>-2.7890000000000001</v>
+        <v>-2.7229999999999999</v>
       </c>
       <c r="K16">
-        <v>5.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="L16">
         <v>-6.0000000000000001E-3</v>
@@ -1055,125 +1042,125 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>274.27600000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="I17">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="J17">
+        <v>2.024</v>
+      </c>
+      <c r="K17">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="L17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M17">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-0.68200000000000005</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="F18">
+        <v>1E-3</v>
+      </c>
+      <c r="G18">
+        <v>170.07300000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="D17">
-        <v>0.06</v>
-      </c>
-      <c r="E17">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>278.202</v>
-      </c>
-      <c r="H17">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I17">
-        <v>0.05</v>
-      </c>
-      <c r="J17">
-        <v>1.9159999999999999</v>
-      </c>
-      <c r="K17">
-        <v>5.5E-2</v>
-      </c>
-      <c r="L17">
-        <v>-2E-3</v>
-      </c>
-      <c r="M17">
-        <v>0.192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>-0.71</v>
-      </c>
-      <c r="D18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="E18">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>174.87799999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19">
-        <v>0.57699999999999996</v>
-      </c>
-      <c r="D19">
-        <v>1.7999999999999999E-2</v>
+      <c r="C19" s="4">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="E19">
-        <v>0.21099999999999999</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G19">
-        <v>174.87799999999999</v>
+        <v>170.07300000000001</v>
       </c>
       <c r="H19">
-        <v>8.7999999999999995E-2</v>
+        <v>0.08</v>
       </c>
       <c r="I19">
-        <v>3.6999999999999998E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J19">
-        <v>2.3660000000000001</v>
+        <v>2.13</v>
       </c>
       <c r="K19">
-        <v>1.7999999999999999E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="L19">
-        <v>1.4999999999999999E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="M19">
-        <v>0.16</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20">
-        <v>-0.02</v>
-      </c>
-      <c r="D20">
-        <v>2E-3</v>
+      <c r="A20" s="3"/>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E20">
-        <v>0.21099999999999999</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G20">
-        <v>174.87799999999999</v>
+        <v>170.07300000000001</v>
       </c>
       <c r="H20">
         <v>-3.0000000000000001E-3</v>
@@ -1182,10 +1169,10 @@
         <v>1E-3</v>
       </c>
       <c r="J20">
-        <v>-3.1</v>
+        <v>-2.992</v>
       </c>
       <c r="K20">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="L20">
         <v>-5.0000000000000001E-3</v>
@@ -1195,125 +1182,125 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21">
-        <v>-3.7999999999999999E-2</v>
-      </c>
-      <c r="D21">
-        <v>0.86799999999999999</v>
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.77500000000000002</v>
       </c>
       <c r="E21">
-        <v>0.21099999999999999</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G21">
-        <v>174.87799999999999</v>
+        <v>170.07300000000001</v>
       </c>
       <c r="H21">
-        <v>-6.0000000000000001E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="I21">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="J21">
-        <v>-0.16600000000000001</v>
+        <v>-0.28599999999999998</v>
       </c>
       <c r="K21">
-        <v>0.86799999999999999</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="L21">
-        <v>-7.3999999999999996E-2</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="M21">
-        <v>6.2E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22">
-        <v>-1.45</v>
-      </c>
-      <c r="D22">
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4">
+        <v>-1.458</v>
+      </c>
+      <c r="D22" s="4">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.23799999999999999</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>272.80599999999998</v>
+        <v>269.06400000000002</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23">
-        <v>1.111</v>
-      </c>
-      <c r="D23">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1.109</v>
+      </c>
+      <c r="D23" s="4">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.23799999999999999</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>272.80599999999998</v>
+        <v>269.06400000000002</v>
       </c>
       <c r="H23">
-        <v>0.28899999999999998</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="I23">
-        <v>4.4999999999999998E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="J23">
-        <v>6.3979999999999997</v>
+        <v>6.3540000000000001</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.20100000000000001</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="M23">
-        <v>0.378</v>
+        <v>0.38500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="4">
         <v>-1E-3</v>
       </c>
-      <c r="D24">
-        <v>0.79600000000000004</v>
+      <c r="D24" s="4">
+        <v>0.88600000000000001</v>
       </c>
       <c r="E24">
-        <v>0.23799999999999999</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>272.80599999999998</v>
+        <v>269.06400000000002</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1322,10 +1309,10 @@
         <v>1E-3</v>
       </c>
       <c r="J24">
-        <v>-0.25900000000000001</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="K24">
-        <v>0.79600000000000004</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="L24">
         <v>-3.0000000000000001E-3</v>
@@ -1335,125 +1322,125 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="D25">
-        <v>0.72799999999999998</v>
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.69099999999999995</v>
       </c>
       <c r="E25">
-        <v>0.23799999999999999</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>272.80599999999998</v>
+        <v>269.06400000000002</v>
       </c>
       <c r="H25">
-        <v>1.7000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="I25">
-        <v>4.9000000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J25">
-        <v>0.34799999999999998</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="K25">
-        <v>0.72799999999999998</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="L25">
         <v>-7.9000000000000001E-2</v>
       </c>
       <c r="M25">
-        <v>0.113</v>
+        <v>0.11899999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26">
-        <v>-1.1819999999999999</v>
-      </c>
-      <c r="D26">
+      <c r="A26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="4">
+        <v>-1.173</v>
+      </c>
+      <c r="D26" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E26">
-        <v>0.25600000000000001</v>
+        <v>0.253</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>161.62700000000001</v>
+        <v>160.53</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="D27">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.871</v>
+      </c>
+      <c r="D27" s="4">
         <v>2E-3</v>
       </c>
       <c r="E27">
-        <v>0.25600000000000001</v>
+        <v>0.253</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>161.62700000000001</v>
+        <v>160.53</v>
       </c>
       <c r="H27">
-        <v>0.124</v>
+        <v>0.125</v>
       </c>
       <c r="I27">
-        <v>0.04</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="J27">
-        <v>3.0910000000000002</v>
+        <v>3.0270000000000001</v>
       </c>
       <c r="K27">
         <v>2E-3</v>
       </c>
       <c r="L27">
-        <v>4.4999999999999998E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="M27">
-        <v>0.20300000000000001</v>
+        <v>0.20699999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-      <c r="D28">
-        <v>6.0000000000000001E-3</v>
+      <c r="A28" s="3"/>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="4">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E28">
-        <v>0.25600000000000001</v>
+        <v>0.253</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>161.62700000000001</v>
+        <v>160.53</v>
       </c>
       <c r="H28">
         <v>-2E-3</v>
@@ -1462,10 +1449,10 @@
         <v>1E-3</v>
       </c>
       <c r="J28">
-        <v>-2.7320000000000002</v>
+        <v>-2.6920000000000002</v>
       </c>
       <c r="K28">
-        <v>6.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="L28">
         <v>-4.0000000000000001E-3</v>
@@ -1475,95 +1462,95 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="E29">
+        <v>0.253</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>160.53</v>
+      </c>
+      <c r="H29">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I29">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J29">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="K29">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="L29">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="M29">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="4">
+        <v>-1.573</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0.16</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>273.887</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C29">
-        <v>0.13</v>
-      </c>
-      <c r="D29">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="E29">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>161.62700000000001</v>
-      </c>
-      <c r="H29">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="I29">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="J29">
-        <v>0.54</v>
-      </c>
-      <c r="K29">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="L29">
-        <v>-4.8000000000000001E-2</v>
-      </c>
-      <c r="M29">
-        <v>8.4000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30">
-        <v>-1.5680000000000001</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0.161</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>277.84500000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="D31">
+      <c r="C31" s="4">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="D31" s="4">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0.161</v>
+        <v>0.16</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>277.84500000000003</v>
+        <v>273.887</v>
       </c>
       <c r="H31">
-        <v>0.22900000000000001</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="I31">
-        <v>4.5999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="J31">
-        <v>4.9249999999999998</v>
+        <v>4.8579999999999997</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1572,28 +1559,28 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="M31">
-        <v>0.32</v>
+        <v>0.32500000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32">
-        <v>2E-3</v>
-      </c>
-      <c r="D32">
-        <v>0.60199999999999998</v>
+      <c r="A32" s="3"/>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.53800000000000003</v>
       </c>
       <c r="E32">
-        <v>0.161</v>
+        <v>0.16</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>277.84500000000003</v>
+        <v>273.887</v>
       </c>
       <c r="H32">
         <v>1E-3</v>
@@ -1602,10 +1589,10 @@
         <v>1E-3</v>
       </c>
       <c r="J32">
-        <v>0.52200000000000002</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="K32">
-        <v>0.60099999999999998</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="L32">
         <v>-2E-3</v>
@@ -1615,125 +1602,125 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="3"/>
+      <c r="B33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="E33">
+        <v>0.16</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>273.887</v>
+      </c>
+      <c r="H33">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="I33">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="J33">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="K33">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="L33">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="M33">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="4">
+        <v>-1.2789999999999999</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0.157</v>
+      </c>
+      <c r="F34">
+        <v>2E-3</v>
+      </c>
+      <c r="G34">
+        <v>197.166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C33">
-        <v>0.188</v>
-      </c>
-      <c r="D33">
-        <v>0.317</v>
-      </c>
-      <c r="E33">
-        <v>0.161</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>277.84500000000003</v>
-      </c>
-      <c r="H33">
-        <v>0.05</v>
-      </c>
-      <c r="I33">
-        <v>0.05</v>
-      </c>
-      <c r="J33">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="K33">
-        <v>0.315</v>
-      </c>
-      <c r="L33">
-        <v>-4.7E-2</v>
-      </c>
-      <c r="M33">
-        <v>0.14699999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34">
-        <v>-1.2869999999999999</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0.16</v>
-      </c>
-      <c r="F34">
-        <v>1E-3</v>
-      </c>
-      <c r="G34">
-        <v>198.92699999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="D35">
-        <v>1E-3</v>
+      <c r="C35" s="4">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2E-3</v>
       </c>
       <c r="E35">
-        <v>0.16</v>
+        <v>0.157</v>
       </c>
       <c r="F35">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="G35">
-        <v>198.92699999999999</v>
+        <v>197.166</v>
       </c>
       <c r="H35">
-        <v>0.13200000000000001</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="I35">
-        <v>4.1000000000000002E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="J35">
-        <v>3.1840000000000002</v>
+        <v>3.113</v>
       </c>
       <c r="K35">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="L35">
-        <v>5.0999999999999997E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="M35">
-        <v>0.21299999999999999</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36">
+      <c r="A36" s="3"/>
+      <c r="B36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="4">
         <v>-0.01</v>
       </c>
-      <c r="D36">
-        <v>5.8000000000000003E-2</v>
+      <c r="D36" s="4">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E36">
-        <v>0.16</v>
+        <v>0.157</v>
       </c>
       <c r="F36">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="G36">
-        <v>198.92699999999999</v>
+        <v>197.166</v>
       </c>
       <c r="H36">
         <v>-2E-3</v>
@@ -1742,10 +1729,10 @@
         <v>1E-3</v>
       </c>
       <c r="J36">
-        <v>-1.9039999999999999</v>
+        <v>-1.853</v>
       </c>
       <c r="K36">
-        <v>5.7000000000000002E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="L36">
         <v>-4.0000000000000001E-3</v>
@@ -1755,125 +1742,125 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="3"/>
+      <c r="B37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="E37">
+        <v>0.157</v>
+      </c>
+      <c r="F37">
+        <v>2E-3</v>
+      </c>
+      <c r="G37">
+        <v>197.166</v>
+      </c>
+      <c r="H37">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I37">
+        <v>0.04</v>
+      </c>
+      <c r="J37">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="K37">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="L37">
+        <v>-0.04</v>
+      </c>
+      <c r="M37">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="4">
+        <v>-0.86599999999999999</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="E38">
+        <v>0.187</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>296.35599999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C37">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="D37">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="E37">
-        <v>0.16</v>
-      </c>
-      <c r="F37">
-        <v>1E-3</v>
-      </c>
-      <c r="G37">
-        <v>198.92699999999999</v>
-      </c>
-      <c r="H37">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="I37">
-        <v>3.9E-2</v>
-      </c>
-      <c r="J37">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="K37">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="L37">
-        <v>-4.1000000000000002E-2</v>
-      </c>
-      <c r="M37">
-        <v>0.111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38">
-        <v>-0.876</v>
-      </c>
-      <c r="D38">
-        <v>2E-3</v>
-      </c>
-      <c r="E38">
-        <v>0.189</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>301.05900000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="D39">
+      <c r="C39" s="4">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="D39" s="4">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.189</v>
+        <v>0.187</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>301.05900000000003</v>
+        <v>296.35599999999999</v>
       </c>
       <c r="H39">
-        <v>0.24399999999999999</v>
+        <v>0.245</v>
       </c>
       <c r="I39">
-        <v>4.7E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="J39">
-        <v>5.194</v>
+        <v>5.0609999999999999</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0.152</v>
+        <v>0.15</v>
       </c>
       <c r="M39">
-        <v>0.33700000000000002</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40">
+      <c r="A40" s="3"/>
+      <c r="B40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="4">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="D40">
-        <v>3.9E-2</v>
+      <c r="D40" s="4">
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="E40">
-        <v>0.189</v>
+        <v>0.187</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>301.05900000000003</v>
+        <v>296.35599999999999</v>
       </c>
       <c r="H40">
         <v>-3.0000000000000001E-3</v>
@@ -1882,10 +1869,10 @@
         <v>1E-3</v>
       </c>
       <c r="J40">
-        <v>-2.1019999999999999</v>
+        <v>-2.0310000000000001</v>
       </c>
       <c r="K40">
-        <v>3.5999999999999997E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="L40">
         <v>-5.0000000000000001E-3</v>
@@ -1895,43 +1882,61 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="D41">
-        <v>7.2999999999999995E-2</v>
+      <c r="A41" s="3"/>
+      <c r="B41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="D41" s="4">
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="E41">
-        <v>0.189</v>
+        <v>0.187</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>301.05900000000003</v>
+        <v>296.35599999999999</v>
       </c>
       <c r="H41">
-        <v>9.4E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="I41">
-        <v>5.1999999999999998E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="J41">
-        <v>1.8149999999999999</v>
+        <v>1.9330000000000001</v>
       </c>
       <c r="K41">
-        <v>6.9000000000000006E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="L41">
-        <v>-7.0000000000000001E-3</v>
+        <v>-1E-3</v>
       </c>
       <c r="M41">
-        <v>0.19500000000000001</v>
-      </c>
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
